--- a/12/1/2/Mensual 1983 a 2021 - Trimestral.xlsx
+++ b/12/1/2/Mensual 1983 a 2021 - Trimestral.xlsx
@@ -5797,7 +5797,7 @@
         <v>2.8</v>
       </c>
       <c r="E154">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="F154">
         <v>4.4</v>
@@ -5813,6 +5813,9 @@
       </c>
       <c r="K154">
         <v>3.7</v>
+      </c>
+      <c r="L154">
+        <v>13.5</v>
       </c>
       <c r="M154">
         <v>14.4</v>
@@ -5834,15 +5837,21 @@
       <c r="B155">
         <v>5.9</v>
       </c>
+      <c r="C155">
+        <v>4.8</v>
+      </c>
       <c r="D155">
         <v>2.9</v>
       </c>
       <c r="E155">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="F155">
         <v>3.7</v>
       </c>
+      <c r="G155">
+        <v>4.6</v>
+      </c>
       <c r="H155">
         <v>6.1</v>
       </c>
@@ -5851,6 +5860,12 @@
       </c>
       <c r="K155">
         <v>4.2</v>
+      </c>
+      <c r="L155">
+        <v>11.9</v>
+      </c>
+      <c r="M155">
+        <v>14.5</v>
       </c>
       <c r="N155">
         <v>15</v>

--- a/12/1/2/Mensual 1983 a 2021 - Trimestral.xlsx
+++ b/12/1/2/Mensual 1983 a 2021 - Trimestral.xlsx
@@ -5712,7 +5712,7 @@
         <v>6.3</v>
       </c>
       <c r="J152">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K152">
         <v>3.8</v>
@@ -5762,7 +5762,7 @@
         <v>6.1</v>
       </c>
       <c r="J153">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K153">
         <v>3.8</v>
@@ -5811,6 +5811,9 @@
       <c r="I154">
         <v>5.6</v>
       </c>
+      <c r="J154">
+        <v>2</v>
+      </c>
       <c r="K154">
         <v>3.7</v>
       </c>
@@ -5857,6 +5860,9 @@
       </c>
       <c r="I155">
         <v>5</v>
+      </c>
+      <c r="J155">
+        <v>1.9</v>
       </c>
       <c r="K155">
         <v>4.2</v>

--- a/12/1/2/Mensual 1983 a 2021 - Trimestral.xlsx
+++ b/12/1/2/Mensual 1983 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t>Serie</t>
   </si>
@@ -524,6 +524,9 @@
   </si>
   <si>
     <t>II-2021</t>
+  </si>
+  <si>
+    <t>III-2021</t>
   </si>
 </sst>
 </file>
@@ -881,7 +884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P155"/>
+  <dimension ref="A1:P156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5883,6 +5886,20 @@
         <v>12.5</v>
       </c>
     </row>
+    <row r="156" spans="1:16">
+      <c r="A156" t="s">
+        <v>170</v>
+      </c>
+      <c r="B156">
+        <v>5.1</v>
+      </c>
+      <c r="F156">
+        <v>3</v>
+      </c>
+      <c r="P156">
+        <v>9.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/1/2/Mensual 1983 a 2021 - Trimestral.xlsx
+++ b/12/1/2/Mensual 1983 a 2021 - Trimestral.xlsx
@@ -5759,7 +5759,7 @@
         <v>4.8</v>
       </c>
       <c r="H153">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="I153">
         <v>6.1</v>
@@ -5893,8 +5893,26 @@
       <c r="B156">
         <v>5.1</v>
       </c>
+      <c r="D156">
+        <v>2.8</v>
+      </c>
       <c r="F156">
         <v>3</v>
+      </c>
+      <c r="H156">
+        <v>5.8</v>
+      </c>
+      <c r="I156">
+        <v>4.4</v>
+      </c>
+      <c r="K156">
+        <v>4.1</v>
+      </c>
+      <c r="N156">
+        <v>12.9</v>
+      </c>
+      <c r="O156">
+        <v>4.3</v>
       </c>
       <c r="P156">
         <v>9.6</v>
